--- a/Results/SFC_Cruise_kg_s_N Inital_Predictions/RF_Confidence_Scores.xlsx
+++ b/Results/SFC_Cruise_kg_s_N Inital_Predictions/RF_Confidence_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,16 +457,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.21638</v>
+        <v>0.19109</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2163800000000001</v>
+        <v>0.19109</v>
       </c>
       <c r="D2" t="n">
-        <v>8.326672684688674e-17</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -474,70 +474,70 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.17704</v>
+        <v>0.15315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1770259</v>
+        <v>0.15315</v>
       </c>
       <c r="D3" t="n">
-        <v>1.410000000001688e-05</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999859001988072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>0.17423</v>
+        <v>0.15315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1743536</v>
+        <v>0.15315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001236000000000015</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999876415275072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17732</v>
+        <v>0.15315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1776239</v>
+        <v>0.15315</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003038999999999958</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996961923271518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.22368</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2236799999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.326672684688674e-17</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.20233</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2028077</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0004776999999999698</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9995225280883322</v>
       </c>
     </row>
     <row r="7">
@@ -545,730 +545,764 @@
         <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>0.16355</v>
+        <v>0.18266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1643087</v>
+        <v>0.18266</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0007586999999999733</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9992418751892939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.18153</v>
+        <v>0.15315</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1803867</v>
+        <v>0.15315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001143299999999986</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9988580056421492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22762</v>
+        <v>0.15315</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2264496</v>
+        <v>0.15315</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00117039999999996</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9988309682347781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>0.19952</v>
+        <v>0.22762</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1983308</v>
+        <v>0.2275496</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001189200000000029</v>
+        <v>7.0400000000026e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9988122125168749</v>
+        <v>0.9999296049558111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
-        <v>0.16186</v>
+        <v>0.22481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1606662</v>
+        <v>0.224928</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001193799999999995</v>
+        <v>0.0001179999999999792</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9988076234591144</v>
+        <v>0.9998820139223571</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.20233</v>
+        <v>0.16861</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203808</v>
+        <v>0.1687672666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001477999999999979</v>
+        <v>0.0001572666666666833</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9985241812600975</v>
+        <v>0.9998427580622486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.15877</v>
+        <v>0.20711</v>
       </c>
       <c r="C13" t="n">
-        <v>0.160271</v>
+        <v>0.2072984</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001501000000000002</v>
+        <v>0.000188400000000033</v>
       </c>
       <c r="E13" t="n">
-        <v>0.998501249624314</v>
+        <v>0.999811635487874</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>0.16018</v>
+        <v>0.16186</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1618572</v>
+        <v>0.1616671583333334</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001677200000000045</v>
+        <v>0.0001928416666666377</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9983256082897763</v>
+        <v>0.9998071955140718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.22762</v>
+        <v>0.17142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2258753</v>
+        <v>0.1716557209523809</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001744699999999988</v>
+        <v>0.0002357209523809467</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9982583386765111</v>
+        <v>0.9997643345988919</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>0.16861</v>
+        <v>0.21638</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1666611</v>
+        <v>0.2167172</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001948900000000003</v>
+        <v>0.0003372000000000375</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9980548908232746</v>
+        <v>0.9996629136655119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>0.15315</v>
+        <v>0.17732</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1509229</v>
+        <v>0.1769598285714286</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002227099999999982</v>
+        <v>0.0003601714285714486</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9977778489525976</v>
+        <v>0.9996399582481806</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.17732</v>
+        <v>0.16776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1750321666666667</v>
+        <v>0.1682296</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00228783333333335</v>
+        <v>0.0004695999999999867</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9977173889004273</v>
+        <v>0.9995306204206506</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.17704</v>
+        <v>0.16776</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1747174</v>
+        <v>0.1682296</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002322600000000008</v>
+        <v>0.0004695999999999867</v>
       </c>
       <c r="E19" t="n">
-        <v>0.997682781970595</v>
+        <v>0.9995306204206506</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>0.22481</v>
+        <v>0.20682</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2219079</v>
+        <v>0.2072984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002902099999999991</v>
+        <v>0.0004784000000000177</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9971062978131165</v>
+        <v>0.9995218287571226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22481</v>
+        <v>0.16158</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2215903</v>
+        <v>0.1610218333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003219699999999992</v>
+        <v>0.0005581666666666929</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9967906331982914</v>
+        <v>0.9994421447095612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" t="n">
-        <v>0.17142</v>
+        <v>0.18462</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1749449</v>
+        <v>0.1839909</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003524899999999997</v>
+        <v>0.0006290999999999936</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9964874812772458</v>
+        <v>0.9993712955179895</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>0.17423</v>
+        <v>0.16018</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1704865</v>
+        <v>0.15952486</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003743500000000011</v>
+        <v>0.0006551399999999985</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9962704615272725</v>
+        <v>0.999345288927412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
-        <v>0.17423</v>
+        <v>0.15877</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1704612</v>
+        <v>0.1595909</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003768800000000017</v>
+        <v>0.000820900000000041</v>
       </c>
       <c r="E24" t="n">
-        <v>0.996245350522949</v>
+        <v>0.9991797733240781</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1613</v>
+        <v>0.17732</v>
       </c>
       <c r="C25" t="n">
-        <v>0.16522512</v>
+        <v>0.1764531</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003925120000000004</v>
+        <v>0.0008669000000000038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9960902263308244</v>
+        <v>0.9991338508646853</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" t="n">
-        <v>0.26134</v>
+        <v>0.17535</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2573243</v>
+        <v>0.1744585833333333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004015700000000066</v>
+        <v>0.0008914166666666723</v>
       </c>
       <c r="E26" t="n">
-        <v>0.996000361348931</v>
+        <v>0.9991093772492969</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>0.17788</v>
+        <v>0.17704</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1733363</v>
+        <v>0.1761309114285714</v>
       </c>
       <c r="D27" t="n">
-        <v>0.004543700000000012</v>
+        <v>0.0009090885714285735</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9954768518283476</v>
+        <v>0.9990917371199757</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.21666</v>
+        <v>0.16158</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2114113</v>
+        <v>0.1606594777777778</v>
       </c>
       <c r="D28" t="n">
-        <v>0.005248700000000023</v>
+        <v>0.0009205222222222476</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9947787050110086</v>
+        <v>0.999080324359642</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>0.17648</v>
+        <v>0.17535</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1708215</v>
+        <v>0.1743629833333333</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005658499999999983</v>
+        <v>0.0009870166666666735</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9943733384642998</v>
+        <v>0.9990139565746283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B30" t="n">
-        <v>0.18968</v>
+        <v>0.15456</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1953931</v>
+        <v>0.15351321</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005713099999999999</v>
+        <v>0.00104679000000002</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9943193540981022</v>
+        <v>0.9989543046234632</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B31" t="n">
-        <v>0.16748</v>
+        <v>0.1672</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1615101</v>
+        <v>0.1660655</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0059699</v>
+        <v>0.001134500000000011</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9940655282031798</v>
+        <v>0.9988667856317008</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>0.26415</v>
+        <v>0.18378</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2577432</v>
+        <v>0.1824759</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006406800000000046</v>
+        <v>0.001304100000000002</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9936339857799051</v>
+        <v>0.9986975984618459</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n">
-        <v>0.16299</v>
+        <v>0.15737</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1694438</v>
+        <v>0.1592726833333333</v>
       </c>
       <c r="D33" t="n">
-        <v>0.006453799999999982</v>
+        <v>0.001902683333333322</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9935875844474927</v>
+        <v>0.998100929995513</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B34" t="n">
-        <v>0.16861</v>
+        <v>0.20345</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1761925</v>
+        <v>0.2063149</v>
       </c>
       <c r="D34" t="n">
-        <v>0.007582499999999992</v>
+        <v>0.002864900000000031</v>
       </c>
       <c r="E34" t="n">
-        <v>0.992474561636392</v>
+        <v>0.9971432842050808</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B35" t="n">
-        <v>0.15315</v>
+        <v>0.1939</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1607626</v>
+        <v>0.1973001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007612599999999969</v>
+        <v>0.003400099999999989</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9924449138488345</v>
+        <v>0.9966114215057384</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>0.16299</v>
+        <v>0.16439</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1723482</v>
+        <v>0.1605872837301587</v>
       </c>
       <c r="D36" t="n">
-        <v>0.009358199999999983</v>
+        <v>0.0038027162698413</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9907285639528168</v>
+        <v>0.9962116895997529</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B37" t="n">
-        <v>0.18153</v>
+        <v>0.16861</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1909315</v>
+        <v>0.1733706377627928</v>
       </c>
       <c r="D37" t="n">
-        <v>0.009401499999999979</v>
+        <v>0.004760637762792758</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9906860649602759</v>
+        <v>0.9952619185267919</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>0.18378</v>
+        <v>0.17985</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1742447</v>
+        <v>0.1846128</v>
       </c>
       <c r="D38" t="n">
-        <v>0.009535299999999997</v>
+        <v>0.004762800000000011</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9905547631667758</v>
+        <v>0.9952597767353648</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B39" t="n">
-        <v>0.18378</v>
+        <v>0.21244</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1742447</v>
+        <v>0.21727</v>
       </c>
       <c r="D39" t="n">
-        <v>0.009535299999999997</v>
+        <v>0.004830000000000029</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9905547631667758</v>
+        <v>0.9951932167630344</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23605</v>
+        <v>0.16748</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2264223</v>
+        <v>0.1623212</v>
       </c>
       <c r="D40" t="n">
-        <v>0.009627699999999989</v>
+        <v>0.005158799999999991</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9904641087006626</v>
+        <v>0.9948676766298021</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>0.18266</v>
+        <v>0.17142</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1705722</v>
+        <v>0.1658748133333333</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01208780000000001</v>
+        <v>0.005545186666666646</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9880565697956245</v>
+        <v>0.9944853928593217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B42" t="n">
-        <v>0.18266</v>
+        <v>0.18153</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1705722</v>
+        <v>0.1757457333333333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01208780000000001</v>
+        <v>0.005784266666666676</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9880565697956245</v>
+        <v>0.9942489986586918</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>0.20458</v>
+        <v>0.18153</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2184832</v>
+        <v>0.1752486095238095</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0139032</v>
+        <v>0.006281390476190474</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9862874483481262</v>
+        <v>0.9937578190994688</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19671</v>
+        <v>0.17338</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2134338</v>
+        <v>0.1657037</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01672380000000001</v>
+        <v>0.007676299999999997</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9835512850195893</v>
+        <v>0.9923821766970207</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B45" t="n">
-        <v>0.17535</v>
+        <v>0.17029</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1951549</v>
+        <v>0.1616971</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01980489999999999</v>
+        <v>0.008592900000000014</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9805797167673934</v>
+        <v>0.991480308854048</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B46" t="n">
-        <v>0.25853</v>
+        <v>0.11606</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2368787</v>
+        <v>0.1289021999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02165129999999998</v>
+        <v>0.01284219999999991</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9788075442178755</v>
+        <v>0.9873206309926661</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B47" t="n">
-        <v>0.21048</v>
+        <v>0.22902</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1701774</v>
+        <v>0.2136908</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04030260000000002</v>
+        <v>0.01532919999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9612587722072405</v>
+        <v>0.9849022366341872</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B48" t="n">
-        <v>0.21048</v>
+        <v>0.18125</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1677607</v>
+        <v>0.1618987</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04271930000000002</v>
+        <v>0.01935129999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9590308724505244</v>
+        <v>0.9810160638437405</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>0.31473</v>
+        <v>0.18856</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1819683</v>
+        <v>0.1682296</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1327617</v>
+        <v>0.02033040000000003</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8827982090143054</v>
+        <v>0.9800746895319399</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1377</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1646329666666667</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0269329666666667</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9737733936479918</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.22368</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1960796</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0276004</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9731409213153284</v>
       </c>
     </row>
   </sheetData>
